--- a/posesiones/1485991.xlsx
+++ b/posesiones/1485991.xlsx
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>13</v>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>14</v>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>20</v>
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>19</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13">
         <v>12</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R15">
         <v>7</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17">
         <v>23</v>
@@ -2651,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <v>18</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R22">
         <v>25</v>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R23">
         <v>8</v>
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R25">
         <v>24</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3145,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3289,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>13</v>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R32">
         <v>23</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R34">
         <v>16</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3589,7 +3589,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3639,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R38">
         <v>25</v>
@@ -3692,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>19</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3795,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>8</v>
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3889,7 +3889,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R44">
         <v>16</v>
@@ -3989,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R46">
         <v>19</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4142,7 +4142,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R48">
         <v>11</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R50">
         <v>14</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4345,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R52">
         <v>21</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R54">
         <v>23</v>
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4645,7 +4645,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R58">
         <v>19</v>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5074,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5171,7 +5171,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>34</v>
@@ -5224,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R70">
         <v>23</v>
@@ -5277,7 +5277,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R71">
         <v>20</v>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R72">
         <v>20</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R74">
         <v>16</v>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5862,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6003,7 +6003,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R88">
         <v>19</v>
@@ -6150,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6197,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R93">
         <v>15</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6441,7 +6441,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6585,7 +6585,7 @@
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R98">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6682,7 +6682,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6873,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R104">
         <v>16</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7017,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7114,7 +7114,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R109">
         <v>8</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7217,7 +7217,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R111">
         <v>8</v>
@@ -7261,10 +7261,10 @@
         <v>1</v>
       </c>
       <c r="P112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7405,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7452,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7493,10 +7493,10 @@
         <v>1</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7546,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R118">
         <v>12</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7649,7 +7649,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="R120">
         <v>19</v>
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7752,7 +7752,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R122">
         <v>18</v>
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7852,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R124">
         <v>24</v>
@@ -7902,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8193,7 +8193,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R131">
         <v>38</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8296,7 +8296,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R133">
         <v>10</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8543,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R138">
         <v>15</v>
@@ -8590,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8734,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R142">
         <v>21</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8881,7 +8881,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R145">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R146">
         <v>17</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9037,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="Q148">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R148">
         <v>12</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R151">
         <v>28</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9290,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R153">
         <v>17</v>
@@ -9340,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9431,7 +9431,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9525,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9572,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9622,7 +9622,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R160">
         <v>11</v>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9725,7 +9725,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R162">
         <v>16</v>
@@ -9775,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9825,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R164">
         <v>20</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10066,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10163,7 +10163,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R171">
         <v>15</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10410,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R176">
         <v>33</v>
@@ -10463,7 +10463,7 @@
         <v>1</v>
       </c>
       <c r="Q177">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R177">
         <v>24</v>
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10566,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R179">
         <v>17</v>
@@ -10616,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10663,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10710,7 +10710,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10854,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R185">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R187">
         <v>18</v>
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11057,7 +11057,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R189">
         <v>8</v>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
       <c r="Q190">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R190">
         <v>9</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11207,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11254,7 +11254,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11301,7 +11301,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11398,7 +11398,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R196">
         <v>3</v>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11495,7 +11495,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11589,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11636,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11686,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R202">
         <v>25</v>
@@ -11736,7 +11736,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R205">
         <v>21</v>
@@ -11886,7 +11886,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12077,7 +12077,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R210">
         <v>18</v>
@@ -12127,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12174,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12265,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R214">
         <v>23</v>
@@ -12318,7 +12318,7 @@
         <v>1</v>
       </c>
       <c r="Q215">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R215">
         <v>9</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12465,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12515,7 +12515,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R219">
         <v>25</v>
@@ -12565,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R221">
         <v>16</v>
@@ -12668,7 +12668,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12912,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R227">
         <v>40</v>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R229">
         <v>15</v>
@@ -13071,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R230">
         <v>2</v>
@@ -13115,10 +13115,10 @@
         <v>1</v>
       </c>
       <c r="P231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q231">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13165,7 +13165,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13212,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="Q234">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:18">
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13441,10 +13441,10 @@
         <v>1</v>
       </c>
       <c r="P238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q238">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13494,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="Q239">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R239">
         <v>17</v>
@@ -13544,7 +13544,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13594,7 +13594,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="R241">
         <v>4</v>
@@ -13647,7 +13647,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="R242">
         <v>10</v>
@@ -13697,7 +13697,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13794,7 +13794,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="R245">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13894,7 +13894,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13944,7 +13944,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="R248">
         <v>15</v>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
       <c r="Q252">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R252">
         <v>18</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14238,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14285,7 +14285,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14332,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14382,7 +14382,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R258">
         <v>24</v>
@@ -14482,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14529,7 +14529,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R260">
         <v>25</v>
@@ -14579,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14626,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14676,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R263">
         <v>15</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14870,7 +14870,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R267">
         <v>16</v>
@@ -14923,7 +14923,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R268">
         <v>11</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -15070,7 +15070,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R271">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>16</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15220,7 +15220,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15314,7 +15314,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R279">
         <v>9</v>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R280">
         <v>18</v>
@@ -15561,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15608,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15655,7 +15655,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15705,7 +15705,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R284">
         <v>11</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15802,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15943,7 +15943,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15990,7 +15990,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16037,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16087,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="Q292">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R292">
         <v>19</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16184,7 +16184,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16281,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R296">
         <v>9</v>
@@ -16334,7 +16334,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R297">
         <v>25</v>
@@ -16387,7 +16387,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16437,7 +16437,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R299">
         <v>9</v>
@@ -16487,7 +16487,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16537,7 +16537,7 @@
         <v>1</v>
       </c>
       <c r="Q301">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R301">
         <v>21</v>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16684,7 +16684,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R305">
         <v>6</v>
@@ -16781,7 +16781,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16828,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16875,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16925,7 +16925,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -16975,7 +16975,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17025,7 +17025,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R311">
         <v>11</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17122,7 +17122,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17266,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17316,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R317">
         <v>22</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17419,7 +17419,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R319">
         <v>11</v>
@@ -17472,7 +17472,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17519,7 +17519,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17566,7 +17566,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17613,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17660,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17754,7 +17754,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17801,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17851,7 +17851,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R328">
         <v>20</v>
@@ -17898,7 +17898,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17945,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -17992,7 +17992,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18042,7 +18042,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R332">
         <v>21</v>
@@ -18095,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18145,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R334">
         <v>23</v>
@@ -18198,7 +18198,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R335">
         <v>15</v>
@@ -18248,7 +18248,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18298,7 +18298,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18348,7 +18348,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R338">
         <v>14</v>
@@ -18401,7 +18401,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18451,7 +18451,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R340">
         <v>13</v>
@@ -18501,7 +18501,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18548,7 +18548,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R342">
         <v>22</v>
@@ -18598,7 +18598,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18692,7 +18692,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18786,7 +18786,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18836,7 +18836,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R348">
         <v>0</v>
@@ -18886,7 +18886,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18983,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R351">
         <v>6</v>
@@ -19033,7 +19033,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19083,7 +19083,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R353">
         <v>9</v>
@@ -19133,7 +19133,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19183,7 +19183,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R355">
         <v>7</v>
@@ -19233,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19280,7 +19280,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19327,7 +19327,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19374,7 +19374,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19424,7 +19424,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R360">
         <v>6</v>
@@ -19477,7 +19477,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R361">
         <v>10</v>
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19627,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19677,7 +19677,7 @@
         <v>1</v>
       </c>
       <c r="Q365">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R365">
         <v>10</v>
@@ -19730,7 +19730,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R366">
         <v>21</v>
@@ -19783,7 +19783,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19833,7 +19833,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R368">
         <v>9</v>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19933,7 +19933,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20027,7 +20027,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20077,7 +20077,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R373">
         <v>3</v>
@@ -20127,7 +20127,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20174,7 +20174,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20221,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20315,7 +20315,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20365,7 +20365,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R379">
         <v>23</v>
@@ -20415,7 +20415,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20465,7 +20465,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R381">
         <v>3</v>
@@ -20509,10 +20509,10 @@
         <v>1</v>
       </c>
       <c r="P382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q382">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20606,7 +20606,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20700,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20747,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20835,10 +20835,10 @@
         <v>1</v>
       </c>
       <c r="P389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q389">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20888,7 +20888,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R390">
         <v>7</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21079,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21126,7 +21126,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21176,7 +21176,7 @@
         <v>1</v>
       </c>
       <c r="Q396">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R396">
         <v>32</v>
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21276,7 +21276,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R398">
         <v>10</v>
@@ -21329,7 +21329,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21379,7 +21379,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R400">
         <v>21</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21476,7 +21476,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21523,7 +21523,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21573,7 +21573,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R404">
         <v>0</v>
@@ -21626,7 +21626,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R405">
         <v>9</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21723,7 +21723,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R408">
         <v>17</v>
@@ -21823,7 +21823,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21917,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21964,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22011,7 +22011,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22058,7 +22058,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22108,7 +22108,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R415">
         <v>14</v>
@@ -22158,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22205,7 +22205,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22255,7 +22255,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R418">
         <v>34</v>
@@ -22308,7 +22308,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R419">
         <v>10</v>
@@ -22361,7 +22361,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22408,7 +22408,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22458,7 +22458,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22508,7 +22508,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R423">
         <v>20</v>
@@ -22561,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22611,7 +22611,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R425">
         <v>9</v>
@@ -22661,7 +22661,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22711,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R427">
         <v>23</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22808,7 +22808,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22949,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22996,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23043,7 +23043,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23090,7 +23090,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23137,7 +23137,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23187,7 +23187,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R437">
         <v>0</v>
@@ -23240,7 +23240,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R438">
         <v>11</v>
@@ -23293,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23343,7 +23343,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R440">
         <v>23</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23443,7 +23443,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23490,7 +23490,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23587,7 +23587,7 @@
         <v>1</v>
       </c>
       <c r="Q445">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R445">
         <v>12</v>
@@ -23640,7 +23640,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23690,7 +23690,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R447">
         <v>6</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23787,7 +23787,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23840,7 +23840,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R450">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R451">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R452">
         <v>9</v>
@@ -23996,7 +23996,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -24046,7 +24046,7 @@
         <v>1</v>
       </c>
       <c r="Q454">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R454">
         <v>7</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24146,7 +24146,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R456">
         <v>5</v>
@@ -24196,7 +24196,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24246,7 +24246,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24296,7 +24296,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R459">
         <v>7</v>
@@ -24346,7 +24346,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24393,7 +24393,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24443,7 +24443,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R462">
         <v>12</v>
@@ -24496,7 +24496,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R463">
         <v>24</v>
@@ -24549,7 +24549,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24599,7 +24599,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R465">
         <v>11</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24702,7 +24702,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R467">
         <v>17</v>
@@ -24755,7 +24755,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24802,7 +24802,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24896,7 +24896,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24943,7 +24943,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -24990,7 +24990,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25181,7 +25181,7 @@
         <v>1</v>
       </c>
       <c r="Q477">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R477">
         <v>26</v>
@@ -25231,7 +25231,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25422,7 +25422,7 @@
         <v>1</v>
       </c>
       <c r="Q482">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R482">
         <v>17</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25522,7 +25522,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25572,7 +25572,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25622,7 +25622,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R486">
         <v>15</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25719,7 +25719,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25769,7 +25769,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R489">
         <v>0</v>
@@ -25819,7 +25819,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25866,7 +25866,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25916,7 +25916,7 @@
         <v>1</v>
       </c>
       <c r="Q492">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R492">
         <v>12</v>
@@ -25966,7 +25966,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26016,7 +26016,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26066,7 +26066,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R495">
         <v>19</v>
@@ -26119,7 +26119,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26169,7 +26169,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R497">
         <v>6</v>
@@ -26222,7 +26222,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26272,7 +26272,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R499">
         <v>6</v>
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26372,7 +26372,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R501">
         <v>22</v>
@@ -26425,7 +26425,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26472,7 +26472,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26519,7 +26519,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26566,7 +26566,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26613,7 +26613,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26660,7 +26660,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26754,7 +26754,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26801,7 +26801,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26848,7 +26848,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26895,7 +26895,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26942,7 +26942,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -26992,7 +26992,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R514">
         <v>6</v>
@@ -27045,7 +27045,7 @@
         <v>0</v>
       </c>
       <c r="Q515">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27095,7 +27095,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R516">
         <v>14</v>
@@ -27145,7 +27145,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R518">
         <v>5</v>
@@ -27245,7 +27245,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27295,7 +27295,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R520">
         <v>26</v>
@@ -27348,7 +27348,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27395,7 +27395,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27495,7 +27495,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R524">
         <v>13</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27592,7 +27592,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27639,7 +27639,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27689,7 +27689,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R528">
         <v>10</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="Q530">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="531" spans="1:18">
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27883,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="Q532">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="533" spans="1:18">
@@ -27933,7 +27933,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R533">
         <v>10</v>
@@ -27977,10 +27977,10 @@
         <v>1</v>
       </c>
       <c r="P534" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q534">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -28021,7 +28021,7 @@
         <v>0</v>
       </c>
       <c r="Q535">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
